--- a/file/TGE-542-HualienSouvenirs.xlsx
+++ b/file/TGE-542-HualienSouvenirs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2DB5EE-F3CA-0749-BAA3-889E72613E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0263A115-3AA0-0D46-88EB-2D0427E2BCE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="12220" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="20360" yWindow="7860" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,67 @@
   </si>
   <si>
     <t>http://panmaster.com.tw/</t>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾記麻糬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮市廣東街96號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-8361314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一～週五，9:00～12:00，13:30～17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.amis-mochi.com.tw/</t>
+  </si>
+  <si>
+    <t>https://www.tzen1314.com/</t>
+  </si>
+  <si>
+    <t>花蓮縣吉安鄉南濱路一段258號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:30 - 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-8420033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5402-HualienSouvenirs-08.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5402-HualienSouvenirs-09.jpg</t>
+  </si>
+  <si>
+    <t>已有四十多年杜侖製作經驗的花東地區老品牌-【阿美麻糬】，靠著董事長余宗柏先生對於阿美族文化的熱愛與收藏，承襲阿美族杜侖的製作技藝，將原住民傳統美食加以改良量化，率先成為花東第一家使用小米材料的名特產品牌，好吃美味的阿美斯杜侖及精心製作的花東名產糕點，都獲得遊客的喜愛與回響。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾記麻糬的創建，就是一個關於愛與感恩的故事。將這份愛與感恩放進曾記麻糬的產品中，是曾記麻糬一路走來不變的初衷。
+因為感恩，所以致力於企業的經營與研發，全心關注每一個細節；我們相信成功沒有捷徑，唯有勤勤懇懇、腳踏實地的努力，懷抱著感恩的心，與全體員工和喜歡曾記麻糬的朋友們，一起實踐永續經營的願望。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿美麻糬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -700,10 +761,10 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -999,13 +1060,75 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+    <row r="9" spans="1:11" ht="128">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="96">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="I11" s="2"/>
